--- a/Chatbot - Delivary e Entregas/Chatbot Groundon Dev/src/Robo/Chatbot/Banco de Dados - EXCEL/Janeiro/base_de_dados_janeiro.xlsx
+++ b/Chatbot - Delivary e Entregas/Chatbot Groundon Dev/src/Robo/Chatbot/Banco de Dados - EXCEL/Janeiro/base_de_dados_janeiro.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Nome</t>
   </si>
@@ -19,34 +19,46 @@
     <t>Telefone</t>
   </si>
   <si>
-    <t>Jon Ferry Jr.</t>
-  </si>
-  <si>
-    <t>(625) 713-9861</t>
-  </si>
-  <si>
-    <t>Jane Runolfsson</t>
-  </si>
-  <si>
-    <t>1-767-852-1657 x9946</t>
-  </si>
-  <si>
-    <t>Joann Gulgowski</t>
-  </si>
-  <si>
-    <t>977-663-4243</t>
-  </si>
-  <si>
-    <t>Mr. Clifton Kuvalis</t>
-  </si>
-  <si>
-    <t>321-590-8662 x2263</t>
-  </si>
-  <si>
-    <t>Sarah Schroeder</t>
-  </si>
-  <si>
-    <t>1-466-606-0079</t>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Itens</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Endereço</t>
+  </si>
+  <si>
+    <t>Mr. Evelyn Fisher</t>
+  </si>
+  <si>
+    <t>815-829-1045 x13307</t>
+  </si>
+  <si>
+    <t>Doreen White</t>
+  </si>
+  <si>
+    <t>425.437.2983 x82185</t>
+  </si>
+  <si>
+    <t>Ms. Sarah Brekke</t>
+  </si>
+  <si>
+    <t>(954) 668-9085 x7804</t>
+  </si>
+  <si>
+    <t>Sophia Lowe</t>
+  </si>
+  <si>
+    <t>1-525-280-8897 x307</t>
+  </si>
+  <si>
+    <t>Maryann Nader</t>
+  </si>
+  <si>
+    <t>421-870-7711</t>
   </si>
 </sst>
 </file>
@@ -63,7 +75,7 @@
     </font>
     <font>
       <b/>
-      <color rgb="FFFFFF"/>
+      <color rgb="0000FF"/>
       <sz val="14"/>
     </font>
   </fonts>
@@ -434,58 +446,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:F6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
-    <col min="1" max="2" width="32" customWidth="1"/>
+    <col min="1" max="6" width="32" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
